--- a/cmd_options/cmd_options.xlsx
+++ b/cmd_options/cmd_options.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="460" windowWidth="17120" windowHeight="17300" tabRatio="500"/>
+    <workbookView xWindow="24420" yWindow="5320" windowWidth="13800" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,19 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
-  <si>
-    <t>map_long_key</t>
-  </si>
-  <si>
-    <t>long_key_description</t>
-  </si>
-  <si>
-    <t>map_short_key</t>
-  </si>
-  <si>
-    <t>short_key_description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
   <si>
     <t>extended_description</t>
   </si>
@@ -56,44 +44,53 @@
     <t>make_value</t>
   </si>
   <si>
-    <t>finalize</t>
-  </si>
-  <si>
-    <t>long_key</t>
-  </si>
-  <si>
     <t>hidden</t>
   </si>
   <si>
-    <t>required_arg</t>
-  </si>
-  <si>
     <t>optional_arg</t>
   </si>
   <si>
-    <t>short_key</t>
-  </si>
-  <si>
     <t>positional</t>
   </si>
   <si>
     <t>Required</t>
   </si>
   <si>
-    <t>strictly no arg</t>
-  </si>
-  <si>
     <t>interpret_value</t>
   </si>
   <si>
-    <t>Not allowed</t>
+    <t>unpack_argument</t>
+  </si>
+  <si>
+    <t>mapped_key</t>
+  </si>
+  <si>
+    <t>key_description</t>
+  </si>
+  <si>
+    <t>Must NOT be present</t>
+  </si>
+  <si>
+    <t>Use if provided</t>
+  </si>
+  <si>
+    <t>Uses raw key</t>
+  </si>
+  <si>
+    <t>✅</t>
+  </si>
+  <si>
+    <t>required_value</t>
+  </si>
+  <si>
+    <t>strictly no value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,18 +98,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri (Body)"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,8 +145,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,394 +426,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:U35"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="0.83203125" customWidth="1"/>
+    <col min="10" max="10" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" s="1" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" s="1" customFormat="1" ht="133" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="R1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="J2" s="2"/>
-      <c r="M2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="2"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3"/>
       <c r="D3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="J4" s="2"/>
-      <c r="N4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="N5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="3"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="3"/>
-      <c r="J6" s="2"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="C7" s="3"/>
+      <c r="D7" s="2"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R8" s="6"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="2"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="6"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="E10" s="5"/>
       <c r="F10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="3"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="2"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R11" s="6"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="3"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="5"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" s="6"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="K14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R14" s="6"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="K15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R15" s="6"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
-      <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="G16" s="4"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
-      <c r="D17" s="3"/>
       <c r="E17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="K18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="K19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="4"/>
-      <c r="J20" s="2"/>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="T21" s="3"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="J22" s="2"/>
-      <c r="O22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="J23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="2"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="4"/>
-      <c r="J26" s="2"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="4"/>
-      <c r="J27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="5"/>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-      <c r="C35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="4"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="K21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cmd_options/cmd_options.xlsx
+++ b/cmd_options/cmd_options.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24420" yWindow="5320" windowWidth="13800" windowHeight="17200" tabRatio="500"/>
+    <workbookView xWindow="24400" yWindow="6660" windowWidth="13800" windowHeight="17200" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="18">
   <si>
     <t>extended_description</t>
   </si>
   <si>
-    <t>implicit_key</t>
-  </si>
-  <si>
     <t>implicit_value</t>
   </si>
   <si>
@@ -50,9 +47,6 @@
     <t>optional_arg</t>
   </si>
   <si>
-    <t>positional</t>
-  </si>
-  <si>
     <t>Required</t>
   </si>
   <si>
@@ -84,6 +78,9 @@
   </si>
   <si>
     <t>strictly no value</t>
+  </si>
+  <si>
+    <t>operand</t>
   </si>
 </sst>
 </file>
@@ -426,228 +423,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="6" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="0.83203125" customWidth="1"/>
+    <col min="9" max="9" width="0.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" s="1" customFormat="1" ht="133" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" s="1" customFormat="1" ht="133" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="5"/>
       <c r="F2" s="2"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="M2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="2"/>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="M4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="L5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="2"/>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="6"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="N7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R8" s="6"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="F9" s="3"/>
       <c r="G9" s="2"/>
-      <c r="K9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="L9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R9" s="6"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -655,42 +638,40 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="5"/>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="P10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R10" s="6"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="P11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R11" s="6"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B12" s="3"/>
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
@@ -698,222 +679,204 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="5"/>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="L12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="6"/>
       <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="P12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B13" s="3"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="5"/>
-      <c r="K13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="L13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="M13" s="6"/>
       <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="P13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
-      <c r="I14" s="2"/>
-      <c r="K14" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
-      <c r="I15" s="2"/>
+      <c r="J15" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="K15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P15" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P16" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
       <c r="E17" s="2"/>
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
-      <c r="I17" s="3"/>
+      <c r="J17" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="K17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
       <c r="E18" s="3"/>
       <c r="F18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="J19" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="K19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="2"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="J20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="I21" s="3"/>
+      <c r="J21" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="K21" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" t="s">
-        <v>13</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
